--- a/root/files/icjia/excel/AttachmentA/SFS/SFS SFY 2021.xlsx
+++ b/root/files/icjia/excel/AttachmentA/SFS/SFS SFY 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Attachment A's on Intranet\SFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E4C0DF-AF34-4E62-9099-AB0EAB5F8155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BE40D1-6D29-4FEC-978E-49782E548835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28425" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SFY21 AA" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Location</t>
   </si>
@@ -152,6 +153,12 @@
       <t>Attachment A</t>
     </r>
   </si>
+  <si>
+    <t>Safe From the Start Evaluation - ICJIA</t>
+  </si>
+  <si>
+    <t>Statewide</t>
+  </si>
 </sst>
 </file>
 
@@ -163,9 +170,16 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -444,53 +458,56 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="6" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="5" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="7" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="6" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="7" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -837,32 +854,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1695A5-60B4-084E-AF36-F216FC60005A}">
-  <dimension ref="A2:G21"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="1.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="1.81640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -875,7 +892,7 @@
       <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -885,7 +902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="62" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>342101</v>
       </c>
@@ -905,7 +922,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="24">
         <v>342106</v>
       </c>
@@ -925,7 +942,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="23">
         <v>342109</v>
       </c>
@@ -936,7 +953,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8:D15" si="0">(E8)+(G8)</f>
+        <f t="shared" ref="D8:D16" si="0">(E8)+(G8)</f>
         <v>75000</v>
       </c>
       <c r="E8" s="4">
@@ -945,7 +962,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="24">
         <v>342103</v>
       </c>
@@ -965,7 +982,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="23">
         <v>342111</v>
       </c>
@@ -985,7 +1002,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="24">
         <v>342107</v>
       </c>
@@ -1005,7 +1022,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="23">
         <v>342110</v>
       </c>
@@ -1025,7 +1042,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="24">
         <v>342108</v>
       </c>
@@ -1045,7 +1062,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A14" s="23">
         <v>342105</v>
       </c>
@@ -1065,58 +1082,70 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22">
         <v>342012</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="5">
         <v>0</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="11" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="25">
+        <v>342113</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>142000</v>
+      </c>
+      <c r="E16" s="19">
+        <v>142000</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="12">
-        <f>SUM(D6:D15)</f>
-        <v>907500</v>
-      </c>
-      <c r="E16" s="12">
-        <f>SUM(E6:E15)</f>
-        <v>907500</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="12">
+        <f>SUM(D6:D16)</f>
+        <v>1049500</v>
+      </c>
+      <c r="E17" s="12">
+        <f>SUM(E6:E16)</f>
+        <v>1049500</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" ref="F17" si="1">(D17)</f>
+        <v>1049500</v>
+      </c>
+      <c r="G17" s="12">
+        <f>SUM(G6:G16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C18" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="D17" s="12">
-        <f>(E17)+(G17)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="D18" s="12">
         <f>(E18)+(G18)</f>
@@ -1128,41 +1157,55 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="12">
+        <f>(E19)+(G19)</f>
+        <v>150500</v>
+      </c>
+      <c r="E19" s="12">
+        <v>150500</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="C20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="12">
-        <f>SUM(D16:D18)</f>
-        <v>907500</v>
-      </c>
-      <c r="E19" s="12">
-        <f>SUM(E16:E18)</f>
-        <v>907500</v>
-      </c>
-      <c r="F19" s="12">
-        <f t="shared" ref="F19" si="1">(D19)</f>
-        <v>907500</v>
-      </c>
-      <c r="G19" s="12">
-        <f>SUM(G16:G18)</f>
+      <c r="D20" s="12">
+        <f>SUM(D17:D19)</f>
+        <v>1200000</v>
+      </c>
+      <c r="E20" s="12">
+        <f>SUM(E17:E19)</f>
+        <v>1200000</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" ref="F20" si="2">(D20)</f>
+        <v>1200000</v>
+      </c>
+      <c r="G20" s="12">
+        <f>SUM(G17:G19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="17"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D22" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TCVrhKvN9k0fg0AXu5XZx2/tEppXBYUjQ9Sr1SFbA+08lFJWlwfAQ1+40jkRpwAdcJASvRxjmlKL6iX2ZVOO6w==" saltValue="XbYRNBG4huGX1suNGNfEzA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zJeMst4USEmiVe++lrdgVA8DNnC8sBcMndMcvA12OVhMpz3KAPLqxkJDZpnTnaJ55vVEbdpE+ugYLnMgFFb9fg==" saltValue="/v/gbV289Xw7eB0Mn69HPA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;RSFS SFY21
-June 18, 2020</oddHeader>
+September 17, 2020</oddHeader>
   </headerFooter>
 </worksheet>
 </file>